--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H2">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I2">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J2">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N2">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O2">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P2">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q2">
-        <v>0.03939943753800001</v>
+        <v>0.3440658286773334</v>
       </c>
       <c r="R2">
-        <v>0.354594937842</v>
+        <v>3.096592458096</v>
       </c>
       <c r="S2">
-        <v>0.0003626236487320459</v>
+        <v>0.005146594880938615</v>
       </c>
       <c r="T2">
-        <v>0.0003626236487320458</v>
+        <v>0.005146594880938615</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H3">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I3">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J3">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N3">
         <v>18.956886</v>
       </c>
       <c r="O3">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P3">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q3">
-        <v>0.799430839506</v>
+        <v>1.594703802016</v>
       </c>
       <c r="R3">
-        <v>7.194877555553999</v>
+        <v>14.352334218144</v>
       </c>
       <c r="S3">
-        <v>0.007357783411273131</v>
+        <v>0.02385384929279255</v>
       </c>
       <c r="T3">
-        <v>0.007357783411273127</v>
+        <v>0.02385384929279255</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H4">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I4">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J4">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N4">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O4">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P4">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q4">
-        <v>0.185299880052</v>
+        <v>0.6642478863253332</v>
       </c>
       <c r="R4">
-        <v>1.667698920468</v>
+        <v>5.978230976928</v>
       </c>
       <c r="S4">
-        <v>0.001705458829184027</v>
+        <v>0.009935932273711055</v>
       </c>
       <c r="T4">
-        <v>0.001705458829184027</v>
+        <v>0.009935932273711055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H5">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I5">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J5">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N5">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O5">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P5">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q5">
-        <v>4.966004710131</v>
+        <v>5.301227907146665</v>
       </c>
       <c r="R5">
-        <v>44.694042391179</v>
+        <v>47.71105116432</v>
       </c>
       <c r="S5">
-        <v>0.0457060014085582</v>
+        <v>0.07929666399738972</v>
       </c>
       <c r="T5">
-        <v>0.04570600140855819</v>
+        <v>0.07929666399738972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H6">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I6">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J6">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N6">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O6">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P6">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q6">
-        <v>0.297025745415</v>
+        <v>0.6807101033333333</v>
       </c>
       <c r="R6">
-        <v>2.673231708735</v>
+        <v>6.12639093</v>
       </c>
       <c r="S6">
-        <v>0.002733758812314521</v>
+        <v>0.01018217690110685</v>
       </c>
       <c r="T6">
-        <v>0.002733758812314521</v>
+        <v>0.01018217690110684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.126513</v>
+        <v>0.252368</v>
       </c>
       <c r="H7">
-        <v>0.379539</v>
+        <v>0.757104</v>
       </c>
       <c r="I7">
-        <v>0.0588599008463789</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="J7">
-        <v>0.05885990084637888</v>
+        <v>0.1374452314236153</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N7">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O7">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P7">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q7">
-        <v>0.108028986819</v>
+        <v>0.60368444544</v>
       </c>
       <c r="R7">
-        <v>0.972260881371</v>
+        <v>5.43316000896</v>
       </c>
       <c r="S7">
-        <v>0.0009942747363169697</v>
+        <v>0.009030014077676556</v>
       </c>
       <c r="T7">
-        <v>0.0009942747363169695</v>
+        <v>0.009030014077676556</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.9816880000000001</v>
       </c>
       <c r="I8">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J8">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N8">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O8">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P8">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q8">
-        <v>0.1019077223626667</v>
+        <v>0.4461280025235557</v>
       </c>
       <c r="R8">
-        <v>0.9171695012640002</v>
+        <v>4.015152022712001</v>
       </c>
       <c r="S8">
-        <v>0.0009379359814840233</v>
+        <v>0.006673258146144874</v>
       </c>
       <c r="T8">
-        <v>0.0009379359814840229</v>
+        <v>0.006673258146144872</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.9816880000000001</v>
       </c>
       <c r="I9">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J9">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N9">
         <v>18.956886</v>
       </c>
       <c r="O9">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P9">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q9">
         <v>2.067749722618667</v>
@@ -1013,10 +1013,10 @@
         <v>18.609747503568</v>
       </c>
       <c r="S9">
-        <v>0.01903110795319031</v>
+        <v>0.03092975021204873</v>
       </c>
       <c r="T9">
-        <v>0.0190311079531903</v>
+        <v>0.03092975021204873</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.9816880000000001</v>
       </c>
       <c r="I10">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J10">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N10">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O10">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P10">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q10">
-        <v>0.4792832058062223</v>
+        <v>0.8612874572462222</v>
       </c>
       <c r="R10">
-        <v>4.313548852256001</v>
+        <v>7.751587115216</v>
       </c>
       <c r="S10">
-        <v>0.004411215888496332</v>
+        <v>0.01288328351443773</v>
       </c>
       <c r="T10">
-        <v>0.004411215888496331</v>
+        <v>0.01288328351443773</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.9816880000000001</v>
       </c>
       <c r="I11">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J11">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N11">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O11">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P11">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q11">
-        <v>12.84470695206311</v>
+        <v>6.873760833004445</v>
       </c>
       <c r="R11">
-        <v>115.602362568568</v>
+        <v>61.86384749704001</v>
       </c>
       <c r="S11">
-        <v>0.1182198222337222</v>
+        <v>0.1028188775733183</v>
       </c>
       <c r="T11">
-        <v>0.1182198222337222</v>
+        <v>0.1028188775733182</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.9816880000000001</v>
       </c>
       <c r="I12">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J12">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N12">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O12">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P12">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q12">
-        <v>0.7682652111244446</v>
+        <v>0.882632953888889</v>
       </c>
       <c r="R12">
-        <v>6.914386900120001</v>
+        <v>7.943696585000001</v>
       </c>
       <c r="S12">
-        <v>0.007070941908324093</v>
+        <v>0.01320257306485474</v>
       </c>
       <c r="T12">
-        <v>0.007070941908324092</v>
+        <v>0.01320257306485473</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.9816880000000001</v>
       </c>
       <c r="I13">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="J13">
-        <v>0.1522427427539199</v>
+        <v>0.1782163802407412</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N13">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O13">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P13">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q13">
-        <v>0.2794199278924445</v>
+        <v>0.7827587436800001</v>
       </c>
       <c r="R13">
-        <v>2.514779351032</v>
+        <v>7.04482869312</v>
       </c>
       <c r="S13">
-        <v>0.002571718788702962</v>
+        <v>0.0117086377299369</v>
       </c>
       <c r="T13">
-        <v>0.002571718788702962</v>
+        <v>0.0117086377299369</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6264076666666666</v>
+        <v>0.267684</v>
       </c>
       <c r="H14">
-        <v>1.879223</v>
+        <v>0.803052</v>
       </c>
       <c r="I14">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J14">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N14">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O14">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P14">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q14">
-        <v>0.1950796339993333</v>
+        <v>0.364946892172</v>
       </c>
       <c r="R14">
-        <v>1.755716705994</v>
+        <v>3.284522029548</v>
       </c>
       <c r="S14">
-        <v>0.001795469506536038</v>
+        <v>0.00545893736174623</v>
       </c>
       <c r="T14">
-        <v>0.001795469506536038</v>
+        <v>0.005458937361746228</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6264076666666666</v>
+        <v>0.267684</v>
       </c>
       <c r="H15">
-        <v>1.879223</v>
+        <v>0.803052</v>
       </c>
       <c r="I15">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J15">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N15">
         <v>18.956886</v>
       </c>
       <c r="O15">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P15">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q15">
-        <v>3.958246242175332</v>
+        <v>1.691485024008</v>
       </c>
       <c r="R15">
-        <v>35.62421617957799</v>
+        <v>15.223365216072</v>
       </c>
       <c r="S15">
-        <v>0.03643081690019451</v>
+        <v>0.02530151918663175</v>
       </c>
       <c r="T15">
-        <v>0.0364308169001945</v>
+        <v>0.02530151918663175</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6264076666666666</v>
+        <v>0.267684</v>
       </c>
       <c r="H16">
-        <v>1.879223</v>
+        <v>0.803052</v>
       </c>
       <c r="I16">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J16">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N16">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O16">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P16">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q16">
-        <v>0.9174809347417776</v>
+        <v>0.7045605274959998</v>
       </c>
       <c r="R16">
-        <v>8.257328412675999</v>
+        <v>6.341044747463999</v>
       </c>
       <c r="S16">
-        <v>0.008444290197728544</v>
+        <v>0.01053893558119916</v>
       </c>
       <c r="T16">
-        <v>0.008444290197728544</v>
+        <v>0.01053893558119916</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6264076666666666</v>
+        <v>0.267684</v>
       </c>
       <c r="H17">
-        <v>1.879223</v>
+        <v>0.803052</v>
       </c>
       <c r="I17">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J17">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N17">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O17">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P17">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q17">
-        <v>24.58833023585588</v>
+        <v>5.622954935239999</v>
       </c>
       <c r="R17">
-        <v>221.294972122703</v>
+        <v>50.60659441716</v>
       </c>
       <c r="S17">
-        <v>0.2263055155991741</v>
+        <v>0.08410911131949086</v>
       </c>
       <c r="T17">
-        <v>0.2263055155991741</v>
+        <v>0.08410911131949086</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6264076666666666</v>
+        <v>0.267684</v>
       </c>
       <c r="H18">
-        <v>1.879223</v>
+        <v>0.803052</v>
       </c>
       <c r="I18">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J18">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N18">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O18">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P18">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q18">
-        <v>1.470672611710555</v>
+        <v>0.7220218224999999</v>
       </c>
       <c r="R18">
-        <v>13.236053505395</v>
+        <v>6.4981964025</v>
       </c>
       <c r="S18">
-        <v>0.0135357431951766</v>
+        <v>0.01080012458630209</v>
       </c>
       <c r="T18">
-        <v>0.0135357431951766</v>
+        <v>0.01080012458630208</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6264076666666666</v>
+        <v>0.267684</v>
       </c>
       <c r="H19">
-        <v>1.879223</v>
+        <v>0.803052</v>
       </c>
       <c r="I19">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="J19">
-        <v>0.2914348181563282</v>
+        <v>0.1457866660131199</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N19">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O19">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P19">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q19">
-        <v>0.5348872097385554</v>
+        <v>0.64032154272</v>
       </c>
       <c r="R19">
-        <v>4.813984887646999</v>
+        <v>5.76289388448</v>
       </c>
       <c r="S19">
-        <v>0.004922982757518421</v>
+        <v>0.009578037977749839</v>
       </c>
       <c r="T19">
-        <v>0.004922982757518421</v>
+        <v>0.009578037977749839</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.229809</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H20">
-        <v>0.689427</v>
+        <v>0.10267</v>
       </c>
       <c r="I20">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J20">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N20">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O20">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P20">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q20">
-        <v>0.07156849763400001</v>
+        <v>0.04665837009222223</v>
       </c>
       <c r="R20">
-        <v>0.6441164787060001</v>
+        <v>0.4199253308300001</v>
       </c>
       <c r="S20">
-        <v>0.0006587005137137111</v>
+        <v>0.0006979237943875185</v>
       </c>
       <c r="T20">
-        <v>0.0006587005137137109</v>
+        <v>0.0006979237943875181</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.229809</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H21">
-        <v>0.689427</v>
+        <v>0.10267</v>
       </c>
       <c r="I21">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J21">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N21">
         <v>18.956886</v>
       </c>
       <c r="O21">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P21">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q21">
-        <v>1.452154338258</v>
+        <v>0.2162559428466667</v>
       </c>
       <c r="R21">
-        <v>13.069389044322</v>
+        <v>1.94630348562</v>
       </c>
       <c r="S21">
-        <v>0.01336530513039187</v>
+        <v>0.003234792983382748</v>
       </c>
       <c r="T21">
-        <v>0.01336530513039186</v>
+        <v>0.003234792983382747</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.229809</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H22">
-        <v>0.689427</v>
+        <v>0.10267</v>
       </c>
       <c r="I22">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J22">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N22">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O22">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P22">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q22">
-        <v>0.336594501236</v>
+        <v>0.09007788954888889</v>
       </c>
       <c r="R22">
-        <v>3.029350511124</v>
+        <v>0.8107010059399999</v>
       </c>
       <c r="S22">
-        <v>0.003097940828815632</v>
+        <v>0.001347400312958212</v>
       </c>
       <c r="T22">
-        <v>0.003097940828815631</v>
+        <v>0.001347400312958212</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.229809</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H23">
-        <v>0.689427</v>
+        <v>0.10267</v>
       </c>
       <c r="I23">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J23">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N23">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O23">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P23">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q23">
-        <v>9.020674368883</v>
+        <v>0.7188934006777777</v>
       </c>
       <c r="R23">
-        <v>81.18606931994699</v>
+        <v>6.4700406061</v>
       </c>
       <c r="S23">
-        <v>0.08302427796115301</v>
+        <v>0.01075332912335954</v>
       </c>
       <c r="T23">
-        <v>0.083024277961153</v>
+        <v>0.01075332912335954</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.229809</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H24">
-        <v>0.689427</v>
+        <v>0.10267</v>
       </c>
       <c r="I24">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J24">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N24">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O24">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P24">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q24">
-        <v>0.539542889095</v>
+        <v>0.09231031180555556</v>
       </c>
       <c r="R24">
-        <v>4.855886001855001</v>
+        <v>0.83079280625</v>
       </c>
       <c r="S24">
-        <v>0.004965832593481997</v>
+        <v>0.001380793262796974</v>
       </c>
       <c r="T24">
-        <v>0.004965832593481995</v>
+        <v>0.001380793262796973</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.229809</v>
+        <v>0.03422333333333333</v>
       </c>
       <c r="H25">
-        <v>0.689427</v>
+        <v>0.10267</v>
       </c>
       <c r="I25">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839984</v>
       </c>
       <c r="J25">
-        <v>0.1069181424328368</v>
+        <v>0.01863878926839983</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N25">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O25">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P25">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q25">
-        <v>0.196233062467</v>
+        <v>0.08186495120000001</v>
       </c>
       <c r="R25">
-        <v>1.766097562203</v>
+        <v>0.7367845608</v>
       </c>
       <c r="S25">
-        <v>0.001806085405280616</v>
+        <v>0.001224549791514841</v>
       </c>
       <c r="T25">
-        <v>0.001806085405280615</v>
+        <v>0.001224549791514841</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5065629999999999</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H26">
-        <v>1.519689</v>
+        <v>1.968854</v>
       </c>
       <c r="I26">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J26">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N26">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O26">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P26">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q26">
-        <v>0.157756888838</v>
+        <v>0.8947454815384447</v>
       </c>
       <c r="R26">
-        <v>1.419811999542</v>
+        <v>8.052709333846002</v>
       </c>
       <c r="S26">
-        <v>0.001451959271953485</v>
+        <v>0.01338375430286396</v>
       </c>
       <c r="T26">
-        <v>0.001451959271953485</v>
+        <v>0.01338375430286396</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.5065629999999999</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H27">
-        <v>1.519689</v>
+        <v>1.968854</v>
       </c>
       <c r="I27">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J27">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N27">
         <v>18.956886</v>
       </c>
       <c r="O27">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P27">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q27">
-        <v>3.200952347605999</v>
+        <v>4.147037869849334</v>
       </c>
       <c r="R27">
-        <v>28.80857112845399</v>
+        <v>37.32334082864401</v>
       </c>
       <c r="S27">
-        <v>0.0294608525461</v>
+        <v>0.06203209413173329</v>
       </c>
       <c r="T27">
-        <v>0.02946085254609999</v>
+        <v>0.06203209413173329</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.5065629999999999</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H28">
-        <v>1.519689</v>
+        <v>1.968854</v>
       </c>
       <c r="I28">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J28">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N28">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O28">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P28">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q28">
-        <v>0.7419479669186665</v>
+        <v>1.727381057269778</v>
       </c>
       <c r="R28">
-        <v>6.677531702267999</v>
+        <v>15.546429515428</v>
       </c>
       <c r="S28">
-        <v>0.006828723853579854</v>
+        <v>0.0258384581257332</v>
       </c>
       <c r="T28">
-        <v>0.006828723853579852</v>
+        <v>0.0258384581257332</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.5065629999999999</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H29">
-        <v>1.519689</v>
+        <v>1.968854</v>
       </c>
       <c r="I29">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J29">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N29">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O29">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P29">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q29">
-        <v>19.88407708281433</v>
+        <v>13.78587851853556</v>
       </c>
       <c r="R29">
-        <v>178.9566937453289</v>
+        <v>124.07290666682</v>
       </c>
       <c r="S29">
-        <v>0.1830086172292449</v>
+        <v>0.2062115034366702</v>
       </c>
       <c r="T29">
-        <v>0.1830086172292449</v>
+        <v>0.2062115034366702</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.5065629999999999</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H30">
-        <v>1.519689</v>
+        <v>1.968854</v>
       </c>
       <c r="I30">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J30">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N30">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O30">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P30">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q30">
-        <v>1.189302701498333</v>
+        <v>1.770191162361111</v>
       </c>
       <c r="R30">
-        <v>10.703724313485</v>
+        <v>15.93172046125</v>
       </c>
       <c r="S30">
-        <v>0.01094607720346905</v>
+        <v>0.02647881892111496</v>
       </c>
       <c r="T30">
-        <v>0.01094607720346905</v>
+        <v>0.02647881892111496</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.5065629999999999</v>
+        <v>0.6562846666666667</v>
       </c>
       <c r="H31">
-        <v>1.519689</v>
+        <v>1.968854</v>
       </c>
       <c r="I31">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="J31">
-        <v>0.2356773450352471</v>
+        <v>0.3574272407348407</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N31">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O31">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P31">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q31">
-        <v>0.4325522883023332</v>
+        <v>1.56988542544</v>
       </c>
       <c r="R31">
-        <v>3.892970594720999</v>
+        <v>14.12896882896</v>
       </c>
       <c r="S31">
-        <v>0.003981114930899852</v>
+        <v>0.02348261181672505</v>
       </c>
       <c r="T31">
-        <v>0.003981114930899852</v>
+        <v>0.02348261181672505</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.33287</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H32">
-        <v>0.99861</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I32">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J32">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N32">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O32">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P32">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q32">
-        <v>0.10366437262</v>
+        <v>0.4067494652014445</v>
       </c>
       <c r="R32">
-        <v>0.9329793535800001</v>
+        <v>3.660745186813001</v>
       </c>
       <c r="S32">
-        <v>0.0009541037992414702</v>
+        <v>0.006084227322072868</v>
       </c>
       <c r="T32">
-        <v>0.0009541037992414699</v>
+        <v>0.006084227322072866</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.33287</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H33">
-        <v>0.99861</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I33">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J33">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N33">
         <v>18.956886</v>
       </c>
       <c r="O33">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P33">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q33">
-        <v>2.10339288094</v>
+        <v>1.885234930531333</v>
       </c>
       <c r="R33">
-        <v>18.93053592846</v>
+        <v>16.967114374782</v>
       </c>
       <c r="S33">
-        <v>0.01935915964454631</v>
+        <v>0.02819966307069197</v>
       </c>
       <c r="T33">
-        <v>0.0193591596445463</v>
+        <v>0.02819966307069197</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.33287</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H34">
-        <v>0.99861</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I34">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J34">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N34">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O34">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P34">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q34">
-        <v>0.4875449248133333</v>
+        <v>0.7852638943037777</v>
       </c>
       <c r="R34">
-        <v>4.38790432332</v>
+        <v>7.067375048734</v>
       </c>
       <c r="S34">
-        <v>0.004487254910329271</v>
+        <v>0.01174611019683626</v>
       </c>
       <c r="T34">
-        <v>0.00448725491032927</v>
+        <v>0.01174611019683626</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.33287</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H35">
-        <v>0.99861</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I35">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J35">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N35">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O35">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P35">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q35">
-        <v>13.06611959135667</v>
+        <v>6.267032167745555</v>
       </c>
       <c r="R35">
-        <v>117.59507632221</v>
+        <v>56.40328950971</v>
       </c>
       <c r="S35">
-        <v>0.1202576548565504</v>
+        <v>0.09374332754051189</v>
       </c>
       <c r="T35">
-        <v>0.1202576548565504</v>
+        <v>0.09374332754051189</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.33287</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H36">
-        <v>0.99861</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I36">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J36">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N36">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O36">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P36">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q36">
-        <v>0.7815083025166667</v>
+        <v>0.8047252804861111</v>
       </c>
       <c r="R36">
-        <v>7.033574722650001</v>
+        <v>7.242527524375</v>
       </c>
       <c r="S36">
-        <v>0.007192828372223682</v>
+        <v>0.01203721690419806</v>
       </c>
       <c r="T36">
-        <v>0.007192828372223681</v>
+        <v>0.01203721690419806</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.33287</v>
+        <v>0.2983456666666667</v>
       </c>
       <c r="H37">
-        <v>0.99861</v>
+        <v>0.8950370000000001</v>
       </c>
       <c r="I37">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="J37">
-        <v>0.154867050775289</v>
+        <v>0.162485692319283</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N37">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O37">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P37">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q37">
-        <v>0.2842364724766667</v>
+        <v>0.7136667023200001</v>
       </c>
       <c r="R37">
-        <v>2.55812825229</v>
+        <v>6.423000320880001</v>
       </c>
       <c r="S37">
-        <v>0.002616049192397854</v>
+        <v>0.01067514728497194</v>
       </c>
       <c r="T37">
-        <v>0.002616049192397853</v>
+        <v>0.01067514728497194</v>
       </c>
     </row>
   </sheetData>
